--- a/utils/Book-modeloUtil.xlsx
+++ b/utils/Book-modeloUtil.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="CampoGenerador" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -515,14 +516,32 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -534,6 +553,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -542,26 +564,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -571,9 +575,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13352,16 +13353,16 @@
       <c r="K3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="61"/>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C4" s="18"/>
@@ -13819,46 +13820,46 @@
       <c r="K17" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="58" t="s">
+      <c r="L17" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="61"/>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C18" s="45"/>
-      <c r="D18" s="46">
+      <c r="C18" s="51"/>
+      <c r="D18" s="52">
         <v>1</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49" t="s">
+      <c r="G18" s="55"/>
+      <c r="H18" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="48" t="s">
+      <c r="I18" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="48"/>
-      <c r="L18" s="42" t="s">
+      <c r="K18" s="55"/>
+      <c r="L18" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="43" t="s">
+      <c r="M18" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="N18" s="43" t="s">
+      <c r="N18" s="58" t="s">
         <v>7</v>
       </c>
       <c r="O18" s="29" t="s">
@@ -13870,18 +13871,18 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
       <c r="O19" s="8" t="s">
         <v>8</v>
       </c>
@@ -13891,28 +13892,28 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C20" s="55"/>
-      <c r="D20" s="56">
+      <c r="C20" s="45"/>
+      <c r="D20" s="46">
         <v>2</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="52" t="s">
+      <c r="G20" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52" t="s">
+      <c r="H20" s="49"/>
+      <c r="I20" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="53" t="s">
+      <c r="J20" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="52"/>
-      <c r="L20" s="54"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="43"/>
       <c r="M20" s="44" t="s">
         <v>6</v>
       </c>
@@ -13928,16 +13929,16 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C21" s="55"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="54"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="43"/>
       <c r="M21" s="44"/>
       <c r="N21" s="44"/>
       <c r="O21" s="17" t="s">
@@ -13949,32 +13950,32 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C22" s="45"/>
-      <c r="D22" s="46">
+      <c r="C22" s="51"/>
+      <c r="D22" s="52">
         <v>3</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="G22" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="49"/>
-      <c r="I22" s="48" t="s">
+      <c r="H22" s="56"/>
+      <c r="I22" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="50" t="s">
+      <c r="J22" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="48"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="43" t="s">
+      <c r="K22" s="55"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="N22" s="43" t="s">
+      <c r="N22" s="58" t="s">
         <v>7</v>
       </c>
       <c r="O22" s="31" t="s">
@@ -13986,18 +13987,18 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
       <c r="O23" s="8" t="s">
         <v>8</v>
       </c>
@@ -14007,28 +14008,28 @@
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C24" s="55"/>
-      <c r="D24" s="56">
+      <c r="C24" s="45"/>
+      <c r="D24" s="46">
         <v>4</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="54" t="s">
+      <c r="F24" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="51"/>
-      <c r="I24" s="52" t="s">
+      <c r="H24" s="49"/>
+      <c r="I24" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J24" s="53" t="s">
+      <c r="J24" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="52"/>
-      <c r="L24" s="54"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="43"/>
       <c r="M24" s="44" t="s">
         <v>6</v>
       </c>
@@ -14044,16 +14045,16 @@
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C25" s="55"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="54"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="43"/>
       <c r="M25" s="44"/>
       <c r="N25" s="44"/>
       <c r="O25" s="17" t="s">
@@ -14065,32 +14066,32 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="3:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="45"/>
-      <c r="D26" s="46">
+      <c r="C26" s="51"/>
+      <c r="D26" s="52">
         <v>5</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="48" t="s">
+      <c r="F26" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="48" t="s">
+      <c r="G26" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="49"/>
-      <c r="I26" s="48" t="s">
+      <c r="H26" s="56"/>
+      <c r="I26" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="42" t="s">
+      <c r="J26" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="K26" s="48"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="43" t="s">
+      <c r="K26" s="55"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="N26" s="43" t="s">
+      <c r="N26" s="58" t="s">
         <v>7</v>
       </c>
       <c r="O26" s="31" t="s">
@@ -14102,18 +14103,18 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
       <c r="O27" s="8" t="s">
         <v>8</v>
       </c>
@@ -14123,28 +14124,28 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="3:19" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="55"/>
-      <c r="D28" s="56">
+      <c r="C28" s="45"/>
+      <c r="D28" s="46">
         <v>6</v>
       </c>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="52" t="s">
+      <c r="F28" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="52" t="s">
+      <c r="G28" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52" t="s">
+      <c r="H28" s="49"/>
+      <c r="I28" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="53" t="s">
+      <c r="J28" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K28" s="52"/>
-      <c r="L28" s="54"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="43"/>
       <c r="M28" s="44" t="s">
         <v>6</v>
       </c>
@@ -14160,16 +14161,16 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C29" s="55"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="54"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="43"/>
       <c r="M29" s="44"/>
       <c r="N29" s="44"/>
       <c r="O29" s="17" t="s">
@@ -14181,32 +14182,32 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C30" s="45"/>
-      <c r="D30" s="46">
+      <c r="C30" s="51"/>
+      <c r="D30" s="52">
         <v>7</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="F30" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="48" t="s">
+      <c r="G30" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="49"/>
-      <c r="I30" s="48" t="s">
+      <c r="H30" s="56"/>
+      <c r="I30" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="J30" s="50" t="s">
+      <c r="J30" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="K30" s="48"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="43" t="s">
+      <c r="K30" s="55"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="N30" s="43" t="s">
+      <c r="N30" s="58" t="s">
         <v>7</v>
       </c>
       <c r="O30" s="31" t="s">
@@ -14218,18 +14219,18 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C31" s="45"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
       <c r="O31" s="8" t="s">
         <v>8</v>
       </c>
@@ -14239,28 +14240,28 @@
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C32" s="55"/>
-      <c r="D32" s="56">
+      <c r="C32" s="45"/>
+      <c r="D32" s="46">
         <v>8</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="54" t="s">
+      <c r="F32" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="52" t="s">
+      <c r="G32" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="51"/>
-      <c r="I32" s="52" t="s">
+      <c r="H32" s="49"/>
+      <c r="I32" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J32" s="53" t="s">
+      <c r="J32" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="52"/>
-      <c r="L32" s="54"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="43"/>
       <c r="M32" s="44" t="s">
         <v>6</v>
       </c>
@@ -14276,16 +14277,16 @@
       <c r="S32" s="1"/>
     </row>
     <row r="33" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C33" s="55"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="54"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="43"/>
       <c r="M33" s="44"/>
       <c r="N33" s="44"/>
       <c r="O33" s="17" t="s">
@@ -14297,32 +14298,32 @@
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C34" s="45"/>
-      <c r="D34" s="46">
+      <c r="C34" s="51"/>
+      <c r="D34" s="52">
         <v>9</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="F34" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="48" t="s">
+      <c r="G34" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H34" s="49"/>
-      <c r="I34" s="48" t="s">
+      <c r="H34" s="56"/>
+      <c r="I34" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="J34" s="50" t="s">
+      <c r="J34" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="K34" s="48"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="43" t="s">
+      <c r="K34" s="55"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="N34" s="43" t="s">
+      <c r="N34" s="58" t="s">
         <v>7</v>
       </c>
       <c r="O34" s="31" t="s">
@@ -14334,18 +14335,18 @@
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C35" s="45"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
       <c r="O35" s="8" t="s">
         <v>8</v>
       </c>
@@ -14355,28 +14356,28 @@
       <c r="S35" s="1"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C36" s="55"/>
-      <c r="D36" s="56">
+      <c r="C36" s="45"/>
+      <c r="D36" s="46">
         <v>10</v>
       </c>
-      <c r="E36" s="57" t="s">
+      <c r="E36" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="54" t="s">
+      <c r="F36" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="52" t="s">
+      <c r="G36" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="51"/>
-      <c r="I36" s="52" t="s">
+      <c r="H36" s="49"/>
+      <c r="I36" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J36" s="53" t="s">
+      <c r="J36" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="52"/>
-      <c r="L36" s="54"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="43"/>
       <c r="M36" s="44" t="s">
         <v>6</v>
       </c>
@@ -14392,16 +14393,16 @@
       <c r="S36" s="1"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="55"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="54"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="43"/>
       <c r="M37" s="44"/>
       <c r="N37" s="44"/>
       <c r="O37" s="17" t="s">
@@ -14413,30 +14414,30 @@
       <c r="S37" s="1"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C38" s="45"/>
-      <c r="D38" s="46">
+      <c r="C38" s="51"/>
+      <c r="D38" s="52">
         <v>11</v>
       </c>
-      <c r="E38" s="47" t="s">
+      <c r="E38" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="42" t="s">
+      <c r="F38" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="G38" s="48"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="48" t="s">
+      <c r="G38" s="55"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="J38" s="50" t="s">
+      <c r="J38" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="48"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="43" t="s">
+      <c r="K38" s="55"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="N38" s="43" t="s">
+      <c r="N38" s="58" t="s">
         <v>7</v>
       </c>
       <c r="O38" s="31" t="s">
@@ -14448,18 +14449,18 @@
       <c r="S38" s="1"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
       <c r="O39" s="8" t="s">
         <v>8</v>
       </c>
@@ -14469,26 +14470,26 @@
       <c r="S39" s="1"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C40" s="55"/>
-      <c r="D40" s="56">
+      <c r="C40" s="45"/>
+      <c r="D40" s="46">
         <v>12</v>
       </c>
-      <c r="E40" s="57" t="s">
+      <c r="E40" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="54" t="s">
+      <c r="F40" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G40" s="52"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="52" t="s">
+      <c r="G40" s="48"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J40" s="53" t="s">
+      <c r="J40" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="K40" s="52"/>
-      <c r="L40" s="54"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="43"/>
       <c r="M40" s="44" t="s">
         <v>6</v>
       </c>
@@ -14504,16 +14505,16 @@
       <c r="S40" s="1"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C41" s="55"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="54"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="43"/>
       <c r="M41" s="44"/>
       <c r="N41" s="44"/>
       <c r="O41" s="17" t="s">
@@ -14525,32 +14526,32 @@
       <c r="S41" s="1"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C42" s="45"/>
-      <c r="D42" s="46">
+      <c r="C42" s="51"/>
+      <c r="D42" s="52">
         <v>13</v>
       </c>
-      <c r="E42" s="47" t="s">
+      <c r="E42" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="42" t="s">
+      <c r="F42" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="G42" s="48" t="s">
+      <c r="G42" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H42" s="49"/>
-      <c r="I42" s="48" t="s">
+      <c r="H42" s="56"/>
+      <c r="I42" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="J42" s="50" t="s">
+      <c r="J42" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="K42" s="48"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="43" t="s">
+      <c r="K42" s="55"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="N42" s="43" t="s">
+      <c r="N42" s="58" t="s">
         <v>7</v>
       </c>
       <c r="O42" s="31" t="s">
@@ -14562,18 +14563,18 @@
       <c r="S42" s="1"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C43" s="45"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="58"/>
       <c r="O43" s="8" t="s">
         <v>8</v>
       </c>
@@ -14633,16 +14634,16 @@
       <c r="K46" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="L46" s="58" t="s">
+      <c r="L46" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="M46" s="59"/>
-      <c r="N46" s="59"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="60"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="60"/>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="60"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="61"/>
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C47" s="32"/>
@@ -15174,46 +15175,46 @@
       <c r="K62" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="L62" s="58" t="s">
+      <c r="L62" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="M62" s="59"/>
-      <c r="N62" s="59"/>
-      <c r="O62" s="59"/>
-      <c r="P62" s="59"/>
-      <c r="Q62" s="59"/>
-      <c r="R62" s="59"/>
-      <c r="S62" s="60"/>
+      <c r="M62" s="60"/>
+      <c r="N62" s="60"/>
+      <c r="O62" s="60"/>
+      <c r="P62" s="60"/>
+      <c r="Q62" s="60"/>
+      <c r="R62" s="60"/>
+      <c r="S62" s="61"/>
     </row>
     <row r="63" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C63" s="45"/>
-      <c r="D63" s="46">
+      <c r="C63" s="51"/>
+      <c r="D63" s="52">
         <v>1</v>
       </c>
-      <c r="E63" s="47" t="s">
+      <c r="E63" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="F63" s="42" t="s">
+      <c r="F63" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="G63" s="48"/>
-      <c r="H63" s="49" t="s">
+      <c r="G63" s="55"/>
+      <c r="H63" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="I63" s="48" t="s">
+      <c r="I63" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="J63" s="50" t="s">
+      <c r="J63" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="K63" s="48"/>
-      <c r="L63" s="42" t="s">
+      <c r="K63" s="55"/>
+      <c r="L63" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="M63" s="43" t="s">
+      <c r="M63" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="N63" s="43" t="s">
+      <c r="N63" s="58" t="s">
         <v>7</v>
       </c>
       <c r="O63" s="29" t="s">
@@ -15225,18 +15226,18 @@
       <c r="S63" s="1"/>
     </row>
     <row r="64" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C64" s="45"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="48"/>
-      <c r="L64" s="42"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="58"/>
+      <c r="N64" s="58"/>
       <c r="O64" s="8" t="s">
         <v>8</v>
       </c>
@@ -15246,28 +15247,28 @@
       <c r="S64" s="1"/>
     </row>
     <row r="65" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C65" s="55"/>
-      <c r="D65" s="56">
+      <c r="C65" s="45"/>
+      <c r="D65" s="46">
         <v>2</v>
       </c>
-      <c r="E65" s="57" t="s">
+      <c r="E65" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F65" s="54" t="s">
+      <c r="F65" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G65" s="52" t="s">
+      <c r="G65" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="H65" s="51"/>
-      <c r="I65" s="52" t="s">
+      <c r="H65" s="49"/>
+      <c r="I65" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J65" s="53" t="s">
+      <c r="J65" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K65" s="52"/>
-      <c r="L65" s="54"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="43"/>
       <c r="M65" s="44" t="s">
         <v>6</v>
       </c>
@@ -15283,16 +15284,16 @@
       <c r="S65" s="1"/>
     </row>
     <row r="66" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C66" s="55"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="52"/>
-      <c r="L66" s="54"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="48"/>
+      <c r="L66" s="43"/>
       <c r="M66" s="44"/>
       <c r="N66" s="44"/>
       <c r="O66" s="17" t="s">
@@ -15304,30 +15305,30 @@
       <c r="S66" s="1"/>
     </row>
     <row r="67" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C67" s="45"/>
-      <c r="D67" s="46">
+      <c r="C67" s="51"/>
+      <c r="D67" s="52">
         <v>3</v>
       </c>
-      <c r="E67" s="47" t="s">
+      <c r="E67" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="F67" s="42" t="s">
+      <c r="F67" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="48"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="48" t="s">
+      <c r="G67" s="55"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="J67" s="50" t="s">
+      <c r="J67" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="K67" s="48"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="43" t="s">
+      <c r="K67" s="55"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="N67" s="43" t="s">
+      <c r="N67" s="58" t="s">
         <v>7</v>
       </c>
       <c r="O67" s="31" t="s">
@@ -15339,18 +15340,18 @@
       <c r="S67" s="1"/>
     </row>
     <row r="68" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C68" s="45"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="48"/>
-      <c r="L68" s="42"/>
-      <c r="M68" s="43"/>
-      <c r="N68" s="43"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="55"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="55"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="58"/>
+      <c r="N68" s="58"/>
       <c r="O68" s="8" t="s">
         <v>8</v>
       </c>
@@ -15360,26 +15361,26 @@
       <c r="S68" s="1"/>
     </row>
     <row r="69" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C69" s="55"/>
-      <c r="D69" s="56">
+      <c r="C69" s="45"/>
+      <c r="D69" s="46">
         <v>4</v>
       </c>
-      <c r="E69" s="57" t="s">
+      <c r="E69" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="F69" s="54" t="s">
+      <c r="F69" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G69" s="52"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="52" t="s">
+      <c r="G69" s="48"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J69" s="53" t="s">
+      <c r="J69" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="K69" s="52"/>
-      <c r="L69" s="54"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="43"/>
       <c r="M69" s="44" t="s">
         <v>6</v>
       </c>
@@ -15395,16 +15396,16 @@
       <c r="S69" s="1"/>
     </row>
     <row r="70" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C70" s="55"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="52"/>
-      <c r="J70" s="53"/>
-      <c r="K70" s="52"/>
-      <c r="L70" s="54"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="43"/>
       <c r="M70" s="44"/>
       <c r="N70" s="44"/>
       <c r="O70" s="17" t="s">
@@ -15416,32 +15417,32 @@
       <c r="S70" s="1"/>
     </row>
     <row r="71" spans="3:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="45"/>
-      <c r="D71" s="46">
+      <c r="C71" s="51"/>
+      <c r="D71" s="52">
         <v>5</v>
       </c>
-      <c r="E71" s="47" t="s">
+      <c r="E71" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="F71" s="48" t="s">
+      <c r="F71" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="G71" s="48" t="s">
+      <c r="G71" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H71" s="49"/>
-      <c r="I71" s="48" t="s">
+      <c r="H71" s="56"/>
+      <c r="I71" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="J71" s="50" t="s">
+      <c r="J71" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="K71" s="48"/>
-      <c r="L71" s="42"/>
-      <c r="M71" s="43" t="s">
+      <c r="K71" s="55"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="N71" s="43" t="s">
+      <c r="N71" s="58" t="s">
         <v>7</v>
       </c>
       <c r="O71" s="31" t="s">
@@ -15453,18 +15454,18 @@
       <c r="S71" s="1"/>
     </row>
     <row r="72" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C72" s="45"/>
-      <c r="D72" s="46"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="48"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="43"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="55"/>
+      <c r="J72" s="57"/>
+      <c r="K72" s="55"/>
+      <c r="L72" s="54"/>
+      <c r="M72" s="58"/>
+      <c r="N72" s="58"/>
       <c r="O72" s="8" t="s">
         <v>8</v>
       </c>
@@ -15545,46 +15546,46 @@
       <c r="K77" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="L77" s="58" t="s">
+      <c r="L77" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="M77" s="59"/>
-      <c r="N77" s="59"/>
-      <c r="O77" s="59"/>
-      <c r="P77" s="59"/>
-      <c r="Q77" s="59"/>
-      <c r="R77" s="59"/>
-      <c r="S77" s="60"/>
+      <c r="M77" s="60"/>
+      <c r="N77" s="60"/>
+      <c r="O77" s="60"/>
+      <c r="P77" s="60"/>
+      <c r="Q77" s="60"/>
+      <c r="R77" s="60"/>
+      <c r="S77" s="61"/>
     </row>
     <row r="78" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C78" s="45"/>
-      <c r="D78" s="46">
+      <c r="C78" s="51"/>
+      <c r="D78" s="52">
         <v>1</v>
       </c>
-      <c r="E78" s="47" t="s">
+      <c r="E78" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="F78" s="42" t="s">
+      <c r="F78" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="G78" s="48"/>
-      <c r="H78" s="49" t="s">
+      <c r="G78" s="55"/>
+      <c r="H78" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="I78" s="48" t="s">
+      <c r="I78" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="J78" s="50" t="s">
+      <c r="J78" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="K78" s="48"/>
-      <c r="L78" s="42" t="s">
+      <c r="K78" s="55"/>
+      <c r="L78" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="M78" s="43" t="s">
+      <c r="M78" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="N78" s="43" t="s">
+      <c r="N78" s="58" t="s">
         <v>7</v>
       </c>
       <c r="O78" s="29" t="s">
@@ -15596,18 +15597,18 @@
       <c r="S78" s="1"/>
     </row>
     <row r="79" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C79" s="45"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="48"/>
-      <c r="J79" s="50"/>
-      <c r="K79" s="48"/>
-      <c r="L79" s="42"/>
-      <c r="M79" s="43"/>
-      <c r="N79" s="43"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="52"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="55"/>
+      <c r="L79" s="54"/>
+      <c r="M79" s="58"/>
+      <c r="N79" s="58"/>
       <c r="O79" s="8" t="s">
         <v>8</v>
       </c>
@@ -15617,28 +15618,28 @@
       <c r="S79" s="1"/>
     </row>
     <row r="80" spans="3:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="55"/>
-      <c r="D80" s="56">
+      <c r="C80" s="45"/>
+      <c r="D80" s="46">
         <v>2</v>
       </c>
-      <c r="E80" s="57" t="s">
+      <c r="E80" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="F80" s="54" t="s">
+      <c r="F80" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="52" t="s">
+      <c r="G80" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="H80" s="51"/>
-      <c r="I80" s="52" t="s">
+      <c r="H80" s="49"/>
+      <c r="I80" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J80" s="53" t="s">
+      <c r="J80" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K80" s="52"/>
-      <c r="L80" s="54"/>
+      <c r="K80" s="48"/>
+      <c r="L80" s="43"/>
       <c r="M80" s="44" t="s">
         <v>6</v>
       </c>
@@ -15654,16 +15655,16 @@
       <c r="S80" s="1"/>
     </row>
     <row r="81" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C81" s="55"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="57"/>
-      <c r="F81" s="54"/>
-      <c r="G81" s="52"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="52"/>
-      <c r="J81" s="53"/>
-      <c r="K81" s="52"/>
-      <c r="L81" s="54"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="49"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="48"/>
+      <c r="L81" s="43"/>
       <c r="M81" s="44"/>
       <c r="N81" s="44"/>
       <c r="O81" s="17" t="s">
@@ -15675,30 +15676,30 @@
       <c r="S81" s="1"/>
     </row>
     <row r="82" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C82" s="45"/>
-      <c r="D82" s="46">
+      <c r="C82" s="51"/>
+      <c r="D82" s="52">
         <v>3</v>
       </c>
-      <c r="E82" s="47" t="s">
+      <c r="E82" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="F82" s="42" t="s">
+      <c r="F82" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="G82" s="48"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="48" t="s">
+      <c r="G82" s="55"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="J82" s="50" t="s">
+      <c r="J82" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="K82" s="48"/>
-      <c r="L82" s="42"/>
-      <c r="M82" s="43" t="s">
+      <c r="K82" s="55"/>
+      <c r="L82" s="54"/>
+      <c r="M82" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="N82" s="43" t="s">
+      <c r="N82" s="58" t="s">
         <v>7</v>
       </c>
       <c r="O82" s="31" t="s">
@@ -15710,18 +15711,18 @@
       <c r="S82" s="1"/>
     </row>
     <row r="83" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C83" s="45"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="49"/>
-      <c r="I83" s="48"/>
-      <c r="J83" s="50"/>
-      <c r="K83" s="48"/>
-      <c r="L83" s="42"/>
-      <c r="M83" s="43"/>
-      <c r="N83" s="43"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="55"/>
+      <c r="J83" s="57"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="54"/>
+      <c r="M83" s="58"/>
+      <c r="N83" s="58"/>
       <c r="O83" s="8" t="s">
         <v>8</v>
       </c>
@@ -15731,26 +15732,26 @@
       <c r="S83" s="1"/>
     </row>
     <row r="84" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C84" s="55"/>
-      <c r="D84" s="56">
+      <c r="C84" s="45"/>
+      <c r="D84" s="46">
         <v>4</v>
       </c>
-      <c r="E84" s="57" t="s">
+      <c r="E84" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="F84" s="54" t="s">
+      <c r="F84" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G84" s="52"/>
-      <c r="H84" s="51"/>
-      <c r="I84" s="52" t="s">
+      <c r="G84" s="48"/>
+      <c r="H84" s="49"/>
+      <c r="I84" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J84" s="53" t="s">
+      <c r="J84" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="K84" s="52"/>
-      <c r="L84" s="54"/>
+      <c r="K84" s="48"/>
+      <c r="L84" s="43"/>
       <c r="M84" s="44" t="s">
         <v>6</v>
       </c>
@@ -15766,16 +15767,16 @@
       <c r="S84" s="1"/>
     </row>
     <row r="85" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C85" s="55"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="57"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="52"/>
-      <c r="H85" s="51"/>
-      <c r="I85" s="52"/>
-      <c r="J85" s="53"/>
-      <c r="K85" s="52"/>
-      <c r="L85" s="54"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="50"/>
+      <c r="K85" s="48"/>
+      <c r="L85" s="43"/>
       <c r="M85" s="44"/>
       <c r="N85" s="44"/>
       <c r="O85" s="17" t="s">
@@ -15813,18 +15814,239 @@
     </row>
   </sheetData>
   <mergeCells count="269">
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="N84:N85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="L3:S3"/>
+    <mergeCell ref="L46:S46"/>
+    <mergeCell ref="L62:S62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="L17:S17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L77:S77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="N78:N79"/>
     <mergeCell ref="L80:L81"/>
     <mergeCell ref="M80:M81"/>
     <mergeCell ref="N80:N81"/>
@@ -15849,239 +16071,18 @@
     <mergeCell ref="I80:I81"/>
     <mergeCell ref="J80:J81"/>
     <mergeCell ref="K80:K81"/>
-    <mergeCell ref="L77:S77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="N78:N79"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L3:S3"/>
-    <mergeCell ref="L46:S46"/>
-    <mergeCell ref="L62:S62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="L17:S17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="N84:N85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="K84:K85"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M4" r:id="rId1" display="http://localhost/phpmyadmin/tbl_structure.php?db=db69751_inventario&amp;table=informe_manto_prevs&amp;goto=tbl_structure.php&amp;back=tbl_structure.php&amp;field=id&amp;change_column=1"/>
@@ -16249,19 +16250,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1293" r:id="rId161" name="Control 269">
+        <control shapeId="1190" r:id="rId161" name="Control 166">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -16269,24 +16270,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1293" r:id="rId161" name="Control 269"/>
+        <control shapeId="1190" r:id="rId161" name="Control 166"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1288" r:id="rId163" name="Control 264">
+        <control shapeId="1185" r:id="rId163" name="Control 161">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>83</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>84</xdr:row>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -16294,24 +16295,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1288" r:id="rId163" name="Control 264"/>
+        <control shapeId="1185" r:id="rId163" name="Control 161"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1283" r:id="rId164" name="Control 259">
+        <control shapeId="1180" r:id="rId164" name="Control 156">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -16319,24 +16320,149 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1283" r:id="rId164" name="Control 259"/>
+        <control shapeId="1180" r:id="rId164" name="Control 156"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1278" r:id="rId165" name="Control 254">
+        <control shapeId="1175" r:id="rId165" name="Control 151">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>79</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>79</xdr:row>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1175" r:id="rId165" name="Control 151"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1170" r:id="rId166" name="Control 146">
+          <controlPr defaultSize="0" r:id="rId162">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1170" r:id="rId166" name="Control 146"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1165" r:id="rId167" name="Control 141">
+          <controlPr defaultSize="0" r:id="rId162">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1165" r:id="rId167" name="Control 141"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1159" r:id="rId168" name="Control 135">
+          <controlPr defaultSize="0" r:id="rId162">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1159" r:id="rId168" name="Control 135"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1153" r:id="rId169" name="Control 129">
+          <controlPr defaultSize="0" r:id="rId162">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1153" r:id="rId169" name="Control 129"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1148" r:id="rId170" name="Control 124">
+          <controlPr defaultSize="0" r:id="rId162">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>247650</xdr:rowOff>
               </to>
             </anchor>
@@ -16344,24 +16470,49 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1278" r:id="rId165" name="Control 254"/>
+        <control shapeId="1148" r:id="rId170" name="Control 124"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1272" r:id="rId166" name="Control 248">
+        <control shapeId="1143" r:id="rId171" name="Control 119">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>77</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>78</xdr:row>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>247650</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1143" r:id="rId171" name="Control 119"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1138" r:id="rId172" name="Control 114">
+          <controlPr defaultSize="0" r:id="rId162">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>24</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -16369,24 +16520,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1272" r:id="rId166" name="Control 248"/>
+        <control shapeId="1138" r:id="rId172" name="Control 114"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1271" r:id="rId167" name="Control 247">
+        <control shapeId="1133" r:id="rId173" name="Control 109">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -16394,24 +16545,74 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1271" r:id="rId167" name="Control 247"/>
+        <control shapeId="1133" r:id="rId173" name="Control 109"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1266" r:id="rId168" name="Control 242">
+        <control shapeId="1128" r:id="rId174" name="Control 104">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1128" r:id="rId174" name="Control 104"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1122" r:id="rId175" name="Control 98">
+          <controlPr defaultSize="0" r:id="rId162">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1122" r:id="rId175" name="Control 98"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1121" r:id="rId176" name="Control 97">
+          <controlPr defaultSize="0" r:id="rId162">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>247650</xdr:rowOff>
               </to>
             </anchor>
@@ -16419,24 +16620,74 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1266" r:id="rId168" name="Control 242"/>
+        <control shapeId="1121" r:id="rId176" name="Control 97"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1261" r:id="rId169" name="Control 237">
+        <control shapeId="1117" r:id="rId177" name="Control 93">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>68</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>247650</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1117" r:id="rId177" name="Control 93"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1113" r:id="rId178" name="Control 89">
+          <controlPr defaultSize="0" r:id="rId162">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>247650</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1113" r:id="rId178" name="Control 89"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1108" r:id="rId179" name="Control 84">
+          <controlPr defaultSize="0" r:id="rId162">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -16444,24 +16695,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1261" r:id="rId169" name="Control 237"/>
+        <control shapeId="1108" r:id="rId179" name="Control 84"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1256" r:id="rId170" name="Control 232">
+        <control shapeId="1104" r:id="rId180" name="Control 80">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>10</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>67</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -16469,24 +16720,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1256" r:id="rId170" name="Control 232"/>
+        <control shapeId="1104" r:id="rId180" name="Control 80"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1251" r:id="rId171" name="Control 227">
+        <control shapeId="1100" r:id="rId181" name="Control 76">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>65</xdr:row>
+                <xdr:row>10</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -16494,24 +16745,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1251" r:id="rId171" name="Control 227"/>
+        <control shapeId="1100" r:id="rId181" name="Control 76"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1245" r:id="rId172" name="Control 221">
+        <control shapeId="1096" r:id="rId182" name="Control 72">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -16519,24 +16770,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1245" r:id="rId172" name="Control 221"/>
+        <control shapeId="1096" r:id="rId182" name="Control 72"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1244" r:id="rId173" name="Control 220">
+        <control shapeId="1092" r:id="rId183" name="Control 68">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -16544,24 +16795,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1244" r:id="rId173" name="Control 220"/>
+        <control shapeId="1092" r:id="rId183" name="Control 68"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1240" r:id="rId174" name="Control 216">
+        <control shapeId="1088" r:id="rId184" name="Control 64">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>247650</xdr:rowOff>
               </to>
             </anchor>
@@ -16569,24 +16820,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1240" r:id="rId174" name="Control 216"/>
+        <control shapeId="1088" r:id="rId184" name="Control 64"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1236" r:id="rId175" name="Control 212">
+        <control shapeId="1083" r:id="rId185" name="Control 59">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>57</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -16594,24 +16845,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1236" r:id="rId175" name="Control 212"/>
+        <control shapeId="1083" r:id="rId185" name="Control 59"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1232" r:id="rId176" name="Control 208">
+        <control shapeId="1078" r:id="rId186" name="Control 54">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>57</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -16619,257 +16870,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1232" r:id="rId176" name="Control 208"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1228" r:id="rId177" name="Control 204">
-          <controlPr defaultSize="0" r:id="rId162">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>55</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1228" r:id="rId177" name="Control 204"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1224" r:id="rId178" name="Control 200">
-          <controlPr defaultSize="0" r:id="rId162">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>54</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>54</xdr:row>
-                <xdr:rowOff>247650</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1224" r:id="rId178" name="Control 200"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1220" r:id="rId179" name="Control 196">
-          <controlPr defaultSize="0" r:id="rId162">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>247650</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1220" r:id="rId179" name="Control 196"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1216" r:id="rId180" name="Control 192">
-          <controlPr defaultSize="0" r:id="rId162">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>52</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>52</xdr:row>
-                <xdr:rowOff>247650</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1216" r:id="rId180" name="Control 192"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1212" r:id="rId181" name="Control 188">
-          <controlPr defaultSize="0" r:id="rId162">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>247650</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1212" r:id="rId181" name="Control 188"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1208" r:id="rId182" name="Control 184">
-          <controlPr defaultSize="0" r:id="rId162">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>50</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>50</xdr:row>
-                <xdr:rowOff>247650</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1208" r:id="rId182" name="Control 184"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1204" r:id="rId183" name="Control 180">
-          <controlPr defaultSize="0" r:id="rId162">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>247650</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1204" r:id="rId183" name="Control 180"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1200" r:id="rId184" name="Control 176">
-          <controlPr defaultSize="0" r:id="rId162">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>48</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>48</xdr:row>
-                <xdr:rowOff>247650</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1200" r:id="rId184" name="Control 176"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1196" r:id="rId185" name="Control 172">
-          <controlPr defaultSize="0" r:id="rId162">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>47</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>47</xdr:row>
-                <xdr:rowOff>247650</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1196" r:id="rId185" name="Control 172"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1191" r:id="rId186" name="Control 167">
-          <controlPr defaultSize="0" r:id="rId162">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>47</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1191" r:id="rId186" name="Control 167"/>
+        <control shapeId="1078" r:id="rId186" name="Control 54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -16899,19 +16900,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1078" r:id="rId188" name="Control 54">
+        <control shapeId="1191" r:id="rId188" name="Control 167">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>47</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -16919,24 +16920,224 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1078" r:id="rId188" name="Control 54"/>
+        <control shapeId="1191" r:id="rId188" name="Control 167"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1083" r:id="rId189" name="Control 59">
+        <control shapeId="1196" r:id="rId189" name="Control 172">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>47</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>247650</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1196" r:id="rId189" name="Control 172"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1200" r:id="rId190" name="Control 176">
+          <controlPr defaultSize="0" r:id="rId162">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>48</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>48</xdr:row>
+                <xdr:rowOff>247650</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1200" r:id="rId190" name="Control 176"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1204" r:id="rId191" name="Control 180">
+          <controlPr defaultSize="0" r:id="rId162">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>247650</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1204" r:id="rId191" name="Control 180"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1208" r:id="rId192" name="Control 184">
+          <controlPr defaultSize="0" r:id="rId162">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>247650</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1208" r:id="rId192" name="Control 184"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1212" r:id="rId193" name="Control 188">
+          <controlPr defaultSize="0" r:id="rId162">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>247650</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1212" r:id="rId193" name="Control 188"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1216" r:id="rId194" name="Control 192">
+          <controlPr defaultSize="0" r:id="rId162">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>52</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>52</xdr:row>
+                <xdr:rowOff>247650</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1216" r:id="rId194" name="Control 192"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1220" r:id="rId195" name="Control 196">
+          <controlPr defaultSize="0" r:id="rId162">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>247650</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1220" r:id="rId195" name="Control 196"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1224" r:id="rId196" name="Control 200">
+          <controlPr defaultSize="0" r:id="rId162">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>54</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>54</xdr:row>
+                <xdr:rowOff>247650</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1224" r:id="rId196" name="Control 200"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1228" r:id="rId197" name="Control 204">
+          <controlPr defaultSize="0" r:id="rId162">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>55</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -16944,24 +17145,74 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1083" r:id="rId189" name="Control 59"/>
+        <control shapeId="1228" r:id="rId197" name="Control 204"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1088" r:id="rId190" name="Control 64">
+        <control shapeId="1232" r:id="rId198" name="Control 208">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>57</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1232" r:id="rId198" name="Control 208"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1236" r:id="rId199" name="Control 212">
+          <controlPr defaultSize="0" r:id="rId162">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>57</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1236" r:id="rId199" name="Control 212"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1240" r:id="rId200" name="Control 216">
+          <controlPr defaultSize="0" r:id="rId162">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>247650</xdr:rowOff>
               </to>
             </anchor>
@@ -16969,24 +17220,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1088" r:id="rId190" name="Control 64"/>
+        <control shapeId="1240" r:id="rId200" name="Control 216"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1092" r:id="rId191" name="Control 68">
+        <control shapeId="1244" r:id="rId201" name="Control 220">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -16994,24 +17245,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1092" r:id="rId191" name="Control 68"/>
+        <control shapeId="1244" r:id="rId201" name="Control 220"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1096" r:id="rId192" name="Control 72">
+        <control shapeId="1245" r:id="rId202" name="Control 221">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -17019,24 +17270,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1096" r:id="rId192" name="Control 72"/>
+        <control shapeId="1245" r:id="rId202" name="Control 221"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1100" r:id="rId193" name="Control 76">
+        <control shapeId="1251" r:id="rId203" name="Control 227">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>10</xdr:row>
+                <xdr:row>65</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -17044,24 +17295,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1100" r:id="rId193" name="Control 76"/>
+        <control shapeId="1251" r:id="rId203" name="Control 227"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1104" r:id="rId194" name="Control 80">
+        <control shapeId="1256" r:id="rId204" name="Control 232">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>67</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -17069,24 +17320,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1104" r:id="rId194" name="Control 80"/>
+        <control shapeId="1256" r:id="rId204" name="Control 232"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1108" r:id="rId195" name="Control 84">
+        <control shapeId="1261" r:id="rId205" name="Control 237">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>68</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -17094,24 +17345,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1108" r:id="rId195" name="Control 84"/>
+        <control shapeId="1261" r:id="rId205" name="Control 237"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1113" r:id="rId196" name="Control 89">
+        <control shapeId="1266" r:id="rId206" name="Control 242">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>247650</xdr:rowOff>
               </to>
             </anchor>
@@ -17119,24 +17370,74 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1113" r:id="rId196" name="Control 89"/>
+        <control shapeId="1266" r:id="rId206" name="Control 242"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1117" r:id="rId197" name="Control 93">
+        <control shapeId="1271" r:id="rId207" name="Control 247">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>73</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1271" r:id="rId207" name="Control 247"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1272" r:id="rId208" name="Control 248">
+          <controlPr defaultSize="0" r:id="rId162">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>77</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>78</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1272" r:id="rId208" name="Control 248"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1278" r:id="rId209" name="Control 254">
+          <controlPr defaultSize="0" r:id="rId162">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>79</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>79</xdr:row>
                 <xdr:rowOff>247650</xdr:rowOff>
               </to>
             </anchor>
@@ -17144,49 +17445,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1117" r:id="rId197" name="Control 93"/>
+        <control shapeId="1278" r:id="rId209" name="Control 254"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1121" r:id="rId198" name="Control 97">
+        <control shapeId="1283" r:id="rId210" name="Control 259">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>247650</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1121" r:id="rId198" name="Control 97"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1122" r:id="rId199" name="Control 98">
-          <controlPr defaultSize="0" r:id="rId162">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -17194,24 +17470,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1122" r:id="rId199" name="Control 98"/>
+        <control shapeId="1283" r:id="rId210" name="Control 259"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1128" r:id="rId200" name="Control 104">
+        <control shapeId="1288" r:id="rId211" name="Control 264">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>83</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>20</xdr:row>
+                <xdr:row>84</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -17219,24 +17495,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1128" r:id="rId200" name="Control 104"/>
+        <control shapeId="1288" r:id="rId211" name="Control 264"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1133" r:id="rId201" name="Control 109">
+        <control shapeId="1293" r:id="rId212" name="Control 269">
           <controlPr defaultSize="0" r:id="rId162">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -17244,282 +17520,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1133" r:id="rId201" name="Control 109"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1138" r:id="rId202" name="Control 114">
-          <controlPr defaultSize="0" r:id="rId162">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1138" r:id="rId202" name="Control 114"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1143" r:id="rId203" name="Control 119">
-          <controlPr defaultSize="0" r:id="rId162">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>247650</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1143" r:id="rId203" name="Control 119"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1148" r:id="rId204" name="Control 124">
-          <controlPr defaultSize="0" r:id="rId162">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>247650</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1148" r:id="rId204" name="Control 124"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1153" r:id="rId205" name="Control 129">
-          <controlPr defaultSize="0" r:id="rId162">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1153" r:id="rId205" name="Control 129"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1159" r:id="rId206" name="Control 135">
-          <controlPr defaultSize="0" r:id="rId162">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1159" r:id="rId206" name="Control 135"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1165" r:id="rId207" name="Control 141">
-          <controlPr defaultSize="0" r:id="rId162">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1165" r:id="rId207" name="Control 141"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1170" r:id="rId208" name="Control 146">
-          <controlPr defaultSize="0" r:id="rId162">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1170" r:id="rId208" name="Control 146"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1175" r:id="rId209" name="Control 151">
-          <controlPr defaultSize="0" r:id="rId162">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1175" r:id="rId209" name="Control 151"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1180" r:id="rId210" name="Control 156">
-          <controlPr defaultSize="0" r:id="rId162">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1180" r:id="rId210" name="Control 156"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1185" r:id="rId211" name="Control 161">
-          <controlPr defaultSize="0" r:id="rId162">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>42</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1185" r:id="rId211" name="Control 161"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1190" r:id="rId212" name="Control 166">
-          <controlPr defaultSize="0" r:id="rId162">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>44</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1190" r:id="rId212" name="Control 166"/>
+        <control shapeId="1293" r:id="rId212" name="Control 269"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17530,7 +17531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:S92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="L16" sqref="L16:L27"/>
     </sheetView>
   </sheetViews>
@@ -18155,11 +18156,11 @@
         <v>id:number,</v>
       </c>
       <c r="L30" t="str">
-        <f>"this."&amp;C30&amp;" = "&amp;C30&amp;";"</f>
+        <f t="shared" ref="L30:L42" si="7">"this."&amp;C30&amp;" = "&amp;C30&amp;";"</f>
         <v>this.id = id;</v>
       </c>
       <c r="S30" t="e">
-        <f>IF(FIND("VARCHA",UPPER(D30),1),"string")</f>
+        <f t="shared" ref="S30:S37" si="8">IF(FIND("VARCHA",UPPER(D30),1),"string")</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -18182,15 +18183,15 @@
         <v>39</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" ref="I31:I42" si="7">F31&amp;G31&amp;","</f>
+        <f t="shared" ref="I31:I42" si="9">F31&amp;G31&amp;","</f>
         <v>pais:string,</v>
       </c>
       <c r="L31" t="str">
-        <f>"this."&amp;C31&amp;" = "&amp;C31&amp;";"</f>
+        <f t="shared" si="7"/>
         <v>this.pais = pais;</v>
       </c>
       <c r="S31" t="str">
-        <f>IF(FIND("VARCHA",UPPER(D31),1),"string")</f>
+        <f t="shared" si="8"/>
         <v>string</v>
       </c>
     </row>
@@ -18206,22 +18207,22 @@
         <v>ciudad:</v>
       </c>
       <c r="G32" s="28" t="str">
-        <f t="shared" ref="G32:G42" si="8">IF(IFERROR(FIND("INT",UPPER(D32),1),0),"number",IF(IFERROR(FIND("VARCHA",UPPER(D32),1),0),"string","objeto"))</f>
+        <f t="shared" ref="G32:G42" si="10">IF(IFERROR(FIND("INT",UPPER(D32),1),0),"number",IF(IFERROR(FIND("VARCHA",UPPER(D32),1),0),"string","objeto"))</f>
         <v>string</v>
       </c>
       <c r="H32" t="s">
         <v>39</v>
       </c>
       <c r="I32" t="str">
+        <f t="shared" si="9"/>
+        <v>ciudad:string,</v>
+      </c>
+      <c r="L32" t="str">
         <f t="shared" si="7"/>
-        <v>ciudad:string,</v>
-      </c>
-      <c r="L32" t="str">
-        <f>"this."&amp;C32&amp;" = "&amp;C32&amp;";"</f>
         <v>this.ciudad = ciudad;</v>
       </c>
       <c r="S32" t="str">
-        <f>IF(FIND("VARCHA",UPPER(D32),1),"string")</f>
+        <f t="shared" si="8"/>
         <v>string</v>
       </c>
     </row>
@@ -18237,22 +18238,22 @@
         <v>direccion:</v>
       </c>
       <c r="G33" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>string</v>
       </c>
       <c r="H33" t="s">
         <v>39</v>
       </c>
       <c r="I33" t="str">
+        <f t="shared" si="9"/>
+        <v>direccion:string,</v>
+      </c>
+      <c r="L33" t="str">
         <f t="shared" si="7"/>
-        <v>direccion:string,</v>
-      </c>
-      <c r="L33" t="str">
-        <f>"this."&amp;C33&amp;" = "&amp;C33&amp;";"</f>
         <v>this.direccion = direccion;</v>
       </c>
       <c r="S33" t="str">
-        <f>IF(FIND("VARCHA",UPPER(D33),1),"string")</f>
+        <f t="shared" si="8"/>
         <v>string</v>
       </c>
     </row>
@@ -18268,22 +18269,22 @@
         <v>documentoIdentificacion:</v>
       </c>
       <c r="G34" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>string</v>
       </c>
       <c r="H34" t="s">
         <v>39</v>
       </c>
       <c r="I34" t="str">
+        <f t="shared" si="9"/>
+        <v>documentoIdentificacion:string,</v>
+      </c>
+      <c r="L34" t="str">
         <f t="shared" si="7"/>
-        <v>documentoIdentificacion:string,</v>
-      </c>
-      <c r="L34" t="str">
-        <f>"this."&amp;C34&amp;" = "&amp;C34&amp;";"</f>
         <v>this.documentoIdentificacion = documentoIdentificacion;</v>
       </c>
       <c r="S34" t="str">
-        <f>IF(FIND("VARCHA",UPPER(D34),1),"string")</f>
+        <f t="shared" si="8"/>
         <v>string</v>
       </c>
     </row>
@@ -18299,22 +18300,22 @@
         <v>cargo:</v>
       </c>
       <c r="G35" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>string</v>
       </c>
       <c r="H35" t="s">
         <v>39</v>
       </c>
       <c r="I35" t="str">
+        <f t="shared" si="9"/>
+        <v>cargo:string,</v>
+      </c>
+      <c r="L35" t="str">
         <f t="shared" si="7"/>
-        <v>cargo:string,</v>
-      </c>
-      <c r="L35" t="str">
-        <f>"this."&amp;C35&amp;" = "&amp;C35&amp;";"</f>
         <v>this.cargo = cargo;</v>
       </c>
       <c r="S35" t="str">
-        <f>IF(FIND("VARCHA",UPPER(D35),1),"string")</f>
+        <f t="shared" si="8"/>
         <v>string</v>
       </c>
     </row>
@@ -18330,22 +18331,22 @@
         <v>compania:</v>
       </c>
       <c r="G36" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>string</v>
       </c>
       <c r="H36" t="s">
         <v>39</v>
       </c>
       <c r="I36" t="str">
+        <f t="shared" si="9"/>
+        <v>compania:string,</v>
+      </c>
+      <c r="L36" t="str">
         <f t="shared" si="7"/>
-        <v>compania:string,</v>
-      </c>
-      <c r="L36" t="str">
-        <f>"this."&amp;C36&amp;" = "&amp;C36&amp;";"</f>
         <v>this.compania = compania;</v>
       </c>
       <c r="S36" t="str">
-        <f>IF(FIND("VARCHA",UPPER(D36),1),"string")</f>
+        <f t="shared" si="8"/>
         <v>string</v>
       </c>
     </row>
@@ -18361,22 +18362,22 @@
         <v>telefono:</v>
       </c>
       <c r="G37" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>string</v>
       </c>
       <c r="H37" t="s">
         <v>39</v>
       </c>
       <c r="I37" t="str">
+        <f t="shared" si="9"/>
+        <v>telefono:string,</v>
+      </c>
+      <c r="L37" t="str">
         <f t="shared" si="7"/>
-        <v>telefono:string,</v>
-      </c>
-      <c r="L37" t="str">
-        <f>"this."&amp;C37&amp;" = "&amp;C37&amp;";"</f>
         <v>this.telefono = telefono;</v>
       </c>
       <c r="S37" t="str">
-        <f>IF(FIND("VARCHA",UPPER(D37),1),"string")</f>
+        <f t="shared" si="8"/>
         <v>string</v>
       </c>
     </row>
@@ -18398,11 +18399,11 @@
         <v>39</v>
       </c>
       <c r="I38" t="str">
+        <f t="shared" si="9"/>
+        <v>estado:string,</v>
+      </c>
+      <c r="L38" t="str">
         <f t="shared" si="7"/>
-        <v>estado:string,</v>
-      </c>
-      <c r="L38" t="str">
-        <f>"this."&amp;C38&amp;" = "&amp;C38&amp;";"</f>
         <v>this.estado = estado;</v>
       </c>
     </row>
@@ -18417,18 +18418,18 @@
         <f t="shared" si="6"/>
         <v>created_at:</v>
       </c>
-      <c r="G39" s="61" t="s">
+      <c r="G39" s="42" t="s">
         <v>38</v>
       </c>
       <c r="H39" t="s">
         <v>39</v>
       </c>
       <c r="I39" t="str">
+        <f t="shared" si="9"/>
+        <v>created_at:Date,</v>
+      </c>
+      <c r="L39" t="str">
         <f t="shared" si="7"/>
-        <v>created_at:Date,</v>
-      </c>
-      <c r="L39" t="str">
-        <f>"this."&amp;C39&amp;" = "&amp;C39&amp;";"</f>
         <v>this.created_at = created_at;</v>
       </c>
     </row>
@@ -18443,18 +18444,18 @@
         <f t="shared" si="6"/>
         <v>updated_at:</v>
       </c>
-      <c r="G40" s="61" t="s">
+      <c r="G40" s="42" t="s">
         <v>38</v>
       </c>
       <c r="H40" t="s">
         <v>39</v>
       </c>
       <c r="I40" t="str">
+        <f t="shared" si="9"/>
+        <v>updated_at:Date,</v>
+      </c>
+      <c r="L40" t="str">
         <f t="shared" si="7"/>
-        <v>updated_at:Date,</v>
-      </c>
-      <c r="L40" t="str">
-        <f>"this."&amp;C40&amp;" = "&amp;C40&amp;";"</f>
         <v>this.updated_at = updated_at;</v>
       </c>
     </row>
@@ -18470,18 +18471,18 @@
         <v>nombre_responsable:</v>
       </c>
       <c r="G41" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>string</v>
       </c>
       <c r="H41" t="s">
         <v>39</v>
       </c>
       <c r="I41" t="str">
+        <f t="shared" si="9"/>
+        <v>nombre_responsable:string,</v>
+      </c>
+      <c r="L41" t="str">
         <f t="shared" si="7"/>
-        <v>nombre_responsable:string,</v>
-      </c>
-      <c r="L41" t="str">
-        <f>"this."&amp;C41&amp;" = "&amp;C41&amp;";"</f>
         <v>this.nombre_responsable = nombre_responsable;</v>
       </c>
     </row>
@@ -18497,18 +18498,18 @@
         <v>area_piso:</v>
       </c>
       <c r="G42" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>string</v>
       </c>
       <c r="H42" t="s">
         <v>39</v>
       </c>
       <c r="I42" t="str">
+        <f t="shared" si="9"/>
+        <v>area_piso:string,</v>
+      </c>
+      <c r="L42" t="str">
         <f t="shared" si="7"/>
-        <v>area_piso:string,</v>
-      </c>
-      <c r="L42" t="str">
-        <f>"this."&amp;C42&amp;" = "&amp;C42&amp;";"</f>
         <v>this.area_piso = area_piso;</v>
       </c>
     </row>
@@ -18526,22 +18527,22 @@
         <v>1</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" ref="F45:F92" si="9">C45&amp;":"</f>
+        <f t="shared" ref="F45:F92" si="11">C45&amp;":"</f>
         <v>id:</v>
       </c>
       <c r="G45" s="28" t="str">
-        <f t="shared" ref="G45:G46" si="10">IF(IFERROR(FIND("INT",UPPER(D45),1),0),"number",IF(IFERROR(FIND("VARCHA",UPPER(D45),1),0),"string","objeto"))</f>
+        <f t="shared" ref="G45:G46" si="12">IF(IFERROR(FIND("INT",UPPER(D45),1),0),"number",IF(IFERROR(FIND("VARCHA",UPPER(D45),1),0),"string","objeto"))</f>
         <v>number</v>
       </c>
       <c r="H45" t="s">
         <v>39</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" ref="I45:I92" si="11">F45&amp;G45&amp;","</f>
+        <f t="shared" ref="I45:I92" si="13">F45&amp;G45&amp;","</f>
         <v>id:number,</v>
       </c>
       <c r="L45" t="str">
-        <f t="shared" ref="L45:L92" si="12">"this."&amp;C45&amp;" = "&amp;C45&amp;";"</f>
+        <f t="shared" ref="L45:L92" si="14">"this."&amp;C45&amp;" = "&amp;C45&amp;";"</f>
         <v>this.id = id;</v>
       </c>
     </row>
@@ -18553,22 +18554,22 @@
         <v>43</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>estacion:</v>
       </c>
       <c r="G46" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>string</v>
       </c>
       <c r="H46" t="s">
         <v>39</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>estacion:string,</v>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this.estacion = estacion;</v>
       </c>
     </row>
@@ -18580,7 +18581,7 @@
         <v>58</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>created_at:</v>
       </c>
       <c r="G47" s="28" t="str">
@@ -18591,11 +18592,11 @@
         <v>39</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>created_at:Date,</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this.created_at = created_at;</v>
       </c>
     </row>
@@ -18607,22 +18608,22 @@
         <v>58</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>updated_at:</v>
       </c>
       <c r="G48" s="28" t="str">
-        <f t="shared" ref="G48:G92" si="13">IF(IFERROR(FIND("INT",UPPER(D48),1),0),"number",IF(IFERROR(FIND("VARCHA",UPPER(D48),1),0),"string",IF(IFERROR(FIND("TIME",UPPER(D48),1),0),"Date","objeto")))</f>
+        <f t="shared" ref="G48:G92" si="15">IF(IFERROR(FIND("INT",UPPER(D48),1),0),"number",IF(IFERROR(FIND("VARCHA",UPPER(D48),1),0),"string",IF(IFERROR(FIND("TIME",UPPER(D48),1),0),"Date","objeto")))</f>
         <v>Date</v>
       </c>
       <c r="H48" t="s">
         <v>39</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>updated_at:Date,</v>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this.updated_at = updated_at;</v>
       </c>
     </row>
@@ -18634,7 +18635,7 @@
         <v>77</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>pais:</v>
       </c>
       <c r="G49" s="28" t="s">
@@ -18644,11 +18645,11 @@
         <v>39</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>pais:string,</v>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this.pais = pais;</v>
       </c>
     </row>
@@ -18660,22 +18661,22 @@
         <v>12</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>nombre_largo:</v>
       </c>
       <c r="G50" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>string</v>
       </c>
       <c r="H50" t="s">
         <v>39</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>nombre_largo:string,</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this.nombre_largo = nombre_largo;</v>
       </c>
     </row>
@@ -18693,22 +18694,22 @@
         <v>1</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>id:</v>
       </c>
       <c r="G53" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>number</v>
       </c>
       <c r="H53" t="s">
         <v>39</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>id:number,</v>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this.id = id;</v>
       </c>
     </row>
@@ -18720,22 +18721,22 @@
         <v>12</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>categoria:</v>
       </c>
       <c r="G54" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>string</v>
       </c>
       <c r="H54" t="s">
         <v>39</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>categoria:string,</v>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this.categoria = categoria;</v>
       </c>
     </row>
@@ -18747,22 +18748,22 @@
         <v>58</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>created_at:</v>
       </c>
       <c r="G55" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Date</v>
       </c>
       <c r="H55" t="s">
         <v>39</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>created_at:Date,</v>
       </c>
       <c r="L55" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this.created_at = created_at;</v>
       </c>
     </row>
@@ -18774,22 +18775,22 @@
         <v>58</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>updated_at:</v>
       </c>
       <c r="G56" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Date</v>
       </c>
       <c r="H56" t="s">
         <v>39</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>updated_at:Date,</v>
       </c>
       <c r="L56" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this.updated_at = updated_at;</v>
       </c>
     </row>
@@ -18801,715 +18802,715 @@
     </row>
     <row r="59" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F59" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G59" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H59" t="s">
         <v>39</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="60" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F60" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G60" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H60" t="s">
         <v>39</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="61" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F61" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G61" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H61" t="s">
         <v>39</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L61" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="62" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G62" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H62" t="s">
         <v>39</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L62" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="63" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F63" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G63" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H63" t="s">
         <v>39</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L63" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="64" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G64" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H64" t="s">
         <v>39</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="65" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F65" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G65" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H65" t="s">
         <v>39</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L65" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="66" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F66" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G66" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H66" t="s">
         <v>39</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="67" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G67" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H67" t="s">
         <v>39</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="68" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F68" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G68" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H68" t="s">
         <v>39</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="69" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F69" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G69" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H69" t="s">
         <v>39</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="70" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F70" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G70" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H70" t="s">
         <v>39</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="71" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F71" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G71" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H71" t="s">
         <v>39</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="72" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F72" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G72" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H72" t="s">
         <v>39</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="73" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F73" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G73" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H73" t="s">
         <v>39</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="74" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F74" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G74" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H74" t="s">
         <v>39</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="75" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F75" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G75" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H75" t="s">
         <v>39</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="76" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F76" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G76" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H76" t="s">
         <v>39</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="77" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G77" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H77" t="s">
         <v>39</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L77" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="78" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F78" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G78" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H78" t="s">
         <v>39</v>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="79" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F79" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G79" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H79" t="s">
         <v>39</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L79" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="80" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F80" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G80" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H80" t="s">
         <v>39</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="81" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F81" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G81" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H81" t="s">
         <v>39</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L81" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="82" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F82" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G82" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H82" t="s">
         <v>39</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L82" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="83" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G83" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H83" t="s">
         <v>39</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L83" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="84" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F84" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G84" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H84" t="s">
         <v>39</v>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L84" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="85" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F85" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G85" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H85" t="s">
         <v>39</v>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L85" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="86" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F86" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G86" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H86" t="s">
         <v>39</v>
       </c>
       <c r="I86" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L86" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="87" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F87" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G87" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H87" t="s">
         <v>39</v>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L87" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="88" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G88" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H88" t="s">
         <v>39</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L88" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="89" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F89" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G89" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H89" t="s">
         <v>39</v>
       </c>
       <c r="I89" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L89" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="90" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F90" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G90" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H90" t="s">
         <v>39</v>
       </c>
       <c r="I90" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="91" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F91" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G91" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H91" t="s">
         <v>39</v>
       </c>
       <c r="I91" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L91" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
     <row r="92" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F92" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>:</v>
       </c>
       <c r="G92" s="28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>objeto</v>
       </c>
       <c r="H92" t="s">
         <v>39</v>
       </c>
       <c r="I92" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>:objeto,</v>
       </c>
       <c r="L92" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>this. = ;</v>
       </c>
     </row>
@@ -19518,4 +19519,92 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"&lt;div class=*form-group has-feedback * :class=*{ 'has-error': form.errors.has('"&amp;D2&amp;"') }*&gt;
+   &lt;input type=*text*"&amp;" class=*form-control* :placeholder=*trans('adminlte_lang_message.fullname')* name=*"&amp;D2&amp;"* value=** v-model=*form."&amp;D2&amp;"* autofocus/&gt;
+   &lt;span class=*glyphicon glyphicon-user form-control-feedback*&gt;&lt;/span&gt;"&amp;"
+   &lt;transition name=*fade*&gt;
+    &lt;span class=*help-block* v-if=*form.errors.has('"&amp;D2&amp;"')* v-text=*form.errors.get('"&amp;D2&amp;"')*&gt;&lt;/span&gt;
+   &lt;/transition&gt;
+  &lt;/div&gt;"</f>
+        <v>&lt;div class=*form-group has-feedback * :class=*{ 'has-error': form.errors.has('name') }*&gt;
+   &lt;input type=*text* class=*form-control* :placeholder=*trans('adminlte_lang_message.fullname')* name=*name* value=** v-model=*form.name* autofocus/&gt;
+   &lt;span class=*glyphicon glyphicon-user form-control-feedback*&gt;&lt;/span&gt;
+   &lt;transition name=*fade*&gt;
+    &lt;span class=*help-block* v-if=*form.errors.has('name')* v-text=*form.errors.get('name')*&gt;&lt;/span&gt;
+   &lt;/transition&gt;
+  &lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F5" si="0">"&lt;div class=*form-group has-feedback * :class=*{ 'has-error': form.errors.has('"&amp;D3&amp;"') }*&gt;
+   &lt;input type=*text*"&amp;" class=*form-control* :placeholder=*trans('adminlte_lang_message.fullname')* name=*"&amp;D3&amp;"* value=** v-model=*form."&amp;D3&amp;"* autofocus/&gt;
+   &lt;span class=*glyphicon glyphicon-user form-control-feedback*&gt;&lt;/span&gt;"&amp;"
+   &lt;transition name=*fade*&gt;
+    &lt;span class=*help-block* v-if=*form.errors.has('"&amp;D3&amp;"')* v-text=*form.errors.get('"&amp;D3&amp;"')*&gt;&lt;/span&gt;
+   &lt;/transition&gt;
+  &lt;/div&gt;"</f>
+        <v>&lt;div class=*form-group has-feedback * :class=*{ 'has-error': form.errors.has('first_name') }*&gt;
+   &lt;input type=*text* class=*form-control* :placeholder=*trans('adminlte_lang_message.fullname')* name=*first_name* value=** v-model=*form.first_name* autofocus/&gt;
+   &lt;span class=*glyphicon glyphicon-user form-control-feedback*&gt;&lt;/span&gt;
+   &lt;transition name=*fade*&gt;
+    &lt;span class=*help-block* v-if=*form.errors.has('first_name')* v-text=*form.errors.get('first_name')*&gt;&lt;/span&gt;
+   &lt;/transition&gt;
+  &lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class=*form-group has-feedback * :class=*{ 'has-error': form.errors.has('last_name') }*&gt;
+   &lt;input type=*text* class=*form-control* :placeholder=*trans('adminlte_lang_message.fullname')* name=*last_name* value=** v-model=*form.last_name* autofocus/&gt;
+   &lt;span class=*glyphicon glyphicon-user form-control-feedback*&gt;&lt;/span&gt;
+   &lt;transition name=*fade*&gt;
+    &lt;span class=*help-block* v-if=*form.errors.has('last_name')* v-text=*form.errors.get('last_name')*&gt;&lt;/span&gt;
+   &lt;/transition&gt;
+  &lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class=*form-group has-feedback * :class=*{ 'has-error': form.errors.has('username') }*&gt;
+   &lt;input type=*text* class=*form-control* :placeholder=*trans('adminlte_lang_message.fullname')* name=*username* value=** v-model=*form.username* autofocus/&gt;
+   &lt;span class=*glyphicon glyphicon-user form-control-feedback*&gt;&lt;/span&gt;
+   &lt;transition name=*fade*&gt;
+    &lt;span class=*help-block* v-if=*form.errors.has('username')* v-text=*form.errors.get('username')*&gt;&lt;/span&gt;
+   &lt;/transition&gt;
+  &lt;/div&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>